--- a/documentation/Examples/ExcelDataProvider/Excel_Data_1.xlsx
+++ b/documentation/Examples/ExcelDataProvider/Excel_Data_1.xlsx
@@ -168,14 +168,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
